--- a/SuppXLS/Scen_UC_OILBND.xlsx
+++ b/SuppXLS/Scen_UC_OILBND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C6493-7FCE-4306-B0EC-F3E7A11141BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734C86E-FA4C-4CC2-8BBD-FBB37F480C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_CO2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Reduction Coeff</t>
-  </si>
-  <si>
-    <t>MANCO2</t>
   </si>
   <si>
     <t>Reference Scenario</t>
@@ -733,7 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -805,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>16</v>
@@ -819,10 +818,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
       </c>
       <c r="I6">
         <v>2030</v>
@@ -835,21 +834,21 @@
       </c>
       <c r="L6" s="8">
         <f>G24*(1-R6)</f>
-        <v>3439.9040000000005</v>
+        <v>2149.94</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R6" s="11">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7">
         <v>2050</v>
@@ -862,10 +861,10 @@
       </c>
       <c r="L7" s="8">
         <f>K24*(1-R7)</f>
-        <v>6030.4789999999994</v>
+        <v>0</v>
       </c>
       <c r="R7" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -889,12 +888,12 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -937,13 +936,13 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>

--- a/SuppXLS/Scen_UC_OILBND.xlsx
+++ b/SuppXLS/Scen_UC_OILBND.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734C86E-FA4C-4CC2-8BBD-FBB37F480C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC2D17-8B34-4CA8-B700-142F221E7E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UC_CO2" sheetId="1" r:id="rId1"/>
+    <sheet name="UC_OIL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +228,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -236,6 +243,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +739,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,13 +954,13 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="G24" s="12">
         <v>4299.88</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8">
+      <c r="K24" s="12">
         <v>8614.9699999999993</v>
       </c>
       <c r="L24" s="8"/>
